--- a/Fase3_ValueBettingAnalysis/SoftmaxRegressionOutliers/PercentagePointDifference/50pointDifferenceOutliers.xlsx
+++ b/Fase3_ValueBettingAnalysis/SoftmaxRegressionOutliers/PercentagePointDifference/50pointDifferenceOutliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE64"/>
+  <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,21 @@
           <t>DiffA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffH</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffD</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>%DiffA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -692,6 +707,15 @@
       <c r="AE2" t="n">
         <v>0.5161418885274232</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-82.20798342645594</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-96.74883787553901</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>122.6585145692054</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -795,6 +819,15 @@
       <c r="AE3" t="n">
         <v>-0.1753436094716577</v>
       </c>
+      <c r="AF3" t="n">
+        <v>-65.0477147255946</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>183.3056166719183</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-87.75433766301329</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -898,6 +931,15 @@
       <c r="AE4" t="n">
         <v>-0.4617696861246636</v>
       </c>
+      <c r="AF4" t="n">
+        <v>390.8633157505542</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-88.3360220774457</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-77.94689112806604</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1001,6 +1043,15 @@
       <c r="AE5" t="n">
         <v>0.5236349936061777</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-80.07103867294047</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-98.85163488772966</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>127.2723942792793</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1104,6 +1155,15 @@
       <c r="AE6" t="n">
         <v>-0.2671449641407632</v>
       </c>
+      <c r="AF6" t="n">
+        <v>137.6616713094863</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-98.89600748855308</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-84.47470746870165</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1207,6 +1267,15 @@
       <c r="AE7" t="n">
         <v>-0.2755202311911522</v>
       </c>
+      <c r="AF7" t="n">
+        <v>162.6135761629111</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-97.28042008509283</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-73.28742320592833</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1310,6 +1379,15 @@
       <c r="AE8" t="n">
         <v>0.5239160017261293</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-72.05571951917705</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-87.63248747659213</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>155.6705522945287</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1413,6 +1491,15 @@
       <c r="AE9" t="n">
         <v>-0.2413395505890216</v>
       </c>
+      <c r="AF9" t="n">
+        <v>109.3228028807898</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-90.78678863326607</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-95.68906775504054</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1516,6 +1603,15 @@
       <c r="AE10" t="n">
         <v>-0.4010604629932312</v>
       </c>
+      <c r="AF10" t="n">
+        <v>300.156529071549</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-29.22026549223998</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-96.7891646460116</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1619,6 +1715,15 @@
       <c r="AE11" t="n">
         <v>-0.2336301565643602</v>
       </c>
+      <c r="AF11" t="n">
+        <v>114.816442359979</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-95.08303391367564</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-85.44987218337522</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1722,6 +1827,15 @@
       <c r="AE12" t="n">
         <v>-0.2448828632465652</v>
       </c>
+      <c r="AF12" t="n">
+        <v>124.5237105629499</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-89.8444729869333</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-78.90281887828985</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1825,6 +1939,15 @@
       <c r="AE13" t="n">
         <v>-0.2881110082644805</v>
       </c>
+      <c r="AF13" t="n">
+        <v>279.4430868348934</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-67.32206323946222</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-82.14256847517977</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1928,6 +2051,15 @@
       <c r="AE14" t="n">
         <v>-0.2647964214811639</v>
       </c>
+      <c r="AF14" t="n">
+        <v>137.9824149014297</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-88.31107076139229</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-80.20755836259609</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2031,6 +2163,15 @@
       <c r="AE15" t="n">
         <v>-0.05432387130617596</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-63.17906469401255</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>427.2225921397289</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-99.70493125916364</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2134,6 +2275,15 @@
       <c r="AE16" t="n">
         <v>-0.0899453200088578</v>
       </c>
+      <c r="AF16" t="n">
+        <v>-57.8281224644048</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>276.9618432070004</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-99.79920246846255</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2237,6 +2387,15 @@
       <c r="AE17" t="n">
         <v>-0.240072310711985</v>
       </c>
+      <c r="AF17" t="n">
+        <v>162.3045506070142</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-97.27443827956493</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-60.21783889318758</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2340,6 +2499,15 @@
       <c r="AE18" t="n">
         <v>-0.2314278695695834</v>
       </c>
+      <c r="AF18" t="n">
+        <v>118.9760532144801</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-96.40005592415723</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-79.12101362645636</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2443,6 +2611,15 @@
       <c r="AE19" t="n">
         <v>-0.3007650477631938</v>
       </c>
+      <c r="AF19" t="n">
+        <v>146.1541854814769</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-92.80970027172093</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-91.94941240181048</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2546,6 +2723,15 @@
       <c r="AE20" t="n">
         <v>-0.2636800446885305</v>
       </c>
+      <c r="AF20" t="n">
+        <v>125.3454923465189</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-88.33852914458846</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-87.67170166931837</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2649,6 +2835,15 @@
       <c r="AE21" t="n">
         <v>-0.2909586298376026</v>
       </c>
+      <c r="AF21" t="n">
+        <v>140.0291179569151</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-93.99539400936754</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-92.21093788518203</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2752,6 +2947,15 @@
       <c r="AE22" t="n">
         <v>-0.2923065595343132</v>
       </c>
+      <c r="AF22" t="n">
+        <v>161.7720762091527</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-86.62757461457961</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-77.78786742448865</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2855,6 +3059,15 @@
       <c r="AE23" t="n">
         <v>-0.2550888048029464</v>
       </c>
+      <c r="AF23" t="n">
+        <v>122.3428272722161</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-88.78327553871127</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-88.26285631496363</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2958,6 +3171,15 @@
       <c r="AE24" t="n">
         <v>-0.3296547287593719</v>
       </c>
+      <c r="AF24" t="n">
+        <v>142.1415141985766</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-65.59955445649123</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-94.24139569286153</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3061,6 +3283,15 @@
       <c r="AE25" t="n">
         <v>-0.0568988255219091</v>
       </c>
+      <c r="AF25" t="n">
+        <v>-75.98200011575845</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>483.1514875948922</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>-99.94044540631162</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3164,6 +3395,15 @@
       <c r="AE26" t="n">
         <v>-0.05859551366677723</v>
       </c>
+      <c r="AF26" t="n">
+        <v>-70.37407179057156</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>494.4872922010013</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>-99.36797970225324</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3267,6 +3507,15 @@
       <c r="AE27" t="n">
         <v>-0.2707071150937231</v>
       </c>
+      <c r="AF27" t="n">
+        <v>146.4852342737773</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-94.40251361932461</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-75.18600430441668</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3370,6 +3619,15 @@
       <c r="AE28" t="n">
         <v>0.5042503829527611</v>
       </c>
+      <c r="AF28" t="n">
+        <v>-83.34093402096943</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-94.80721845692828</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>116.6670603760243</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3473,6 +3731,15 @@
       <c r="AE29" t="n">
         <v>-0.2658294931220396</v>
       </c>
+      <c r="AF29" t="n">
+        <v>132.8689736302374</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-91.67335481060219</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>-88.86888968292503</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3576,6 +3843,15 @@
       <c r="AE30" t="n">
         <v>-0.2384165832931874</v>
       </c>
+      <c r="AF30" t="n">
+        <v>109.3740092843329</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-92.29075718985104</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>-95.09407999696801</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3679,6 +3955,15 @@
       <c r="AE31" t="n">
         <v>-0.04779399357079829</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-60.31731844214999</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>568.8062724611369</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-99.15647812698644</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3782,6 +4067,15 @@
       <c r="AE32" t="n">
         <v>0.524324086921901</v>
       </c>
+      <c r="AF32" t="n">
+        <v>-73.86391630984184</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-95.88071417637875</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>138.7697659937897</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3885,6 +4179,15 @@
       <c r="AE33" t="n">
         <v>-0.07577173076099014</v>
       </c>
+      <c r="AF33" t="n">
+        <v>-58.83828875413184</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>326.2481885907597</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>-99.23684984529663</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3988,6 +4291,15 @@
       <c r="AE34" t="n">
         <v>-0.2150170800863527</v>
       </c>
+      <c r="AF34" t="n">
+        <v>121.5974753358508</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-96.93629752757448</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-73.06405634002276</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4091,6 +4403,15 @@
       <c r="AE35" t="n">
         <v>-0.2887121237488745</v>
       </c>
+      <c r="AF35" t="n">
+        <v>203.7460247652501</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-61.27619248496941</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>-94.83874128893957</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4194,6 +4515,15 @@
       <c r="AE36" t="n">
         <v>-0.2383939390447871</v>
       </c>
+      <c r="AF36" t="n">
+        <v>105.0621825080835</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-97.71782991603195</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>-94.5519083137568</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4297,6 +4627,15 @@
       <c r="AE37" t="n">
         <v>-0.2675575680725719</v>
       </c>
+      <c r="AF37" t="n">
+        <v>126.1245722956163</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>-84.23331642562346</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>-84.52803016294281</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4400,6 +4739,15 @@
       <c r="AE38" t="n">
         <v>-0.2227939754238253</v>
       </c>
+      <c r="AF38" t="n">
+        <v>109.2665712904182</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-96.59730792708029</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>-87.49630331912466</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4503,6 +4851,15 @@
       <c r="AE39" t="n">
         <v>0.5086971305503853</v>
       </c>
+      <c r="AF39" t="n">
+        <v>-66.38875113351916</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>-95.87601639584982</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>140.3785210184451</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4606,6 +4963,15 @@
       <c r="AE40" t="n">
         <v>0.5025754647528894</v>
       </c>
+      <c r="AF40" t="n">
+        <v>-89.08477837922582</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>-94.2036600118262</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>111.3252119579795</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4709,6 +5075,15 @@
       <c r="AE41" t="n">
         <v>0.500964820311455</v>
       </c>
+      <c r="AF41" t="n">
+        <v>-83.8678822665414</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>-99.89930818737575</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>109.75077906783</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4812,6 +5187,15 @@
       <c r="AE42" t="n">
         <v>-0.2769823258442103</v>
       </c>
+      <c r="AF42" t="n">
+        <v>150.1130753120402</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>-96.6487107070808</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>-81.24092823400174</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4915,6 +5299,15 @@
       <c r="AE43" t="n">
         <v>-0.2940126510430951</v>
       </c>
+      <c r="AF43" t="n">
+        <v>135.6930518535051</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>-87.2155596338402</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>-94.32100706686968</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5018,6 +5411,15 @@
       <c r="AE44" t="n">
         <v>-0.2899373863233636</v>
       </c>
+      <c r="AF44" t="n">
+        <v>141.5818004564721</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>-99.28671321797174</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>-93.57648064899112</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5121,6 +5523,15 @@
       <c r="AE45" t="n">
         <v>-0.2601776492909248</v>
       </c>
+      <c r="AF45" t="n">
+        <v>112.4476492414067</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>-87.8648906010163</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>-95.30161325261595</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5224,6 +5635,15 @@
       <c r="AE46" t="n">
         <v>-0.2516073519652098</v>
       </c>
+      <c r="AF46" t="n">
+        <v>122.0332780490412</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-96.11940671694242</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-89.85755424158943</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5327,6 +5747,15 @@
       <c r="AE47" t="n">
         <v>-0.2267337036506127</v>
       </c>
+      <c r="AF47" t="n">
+        <v>120.8387534435034</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-96.52672220599246</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-77.65900562597659</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5430,6 +5859,15 @@
       <c r="AE48" t="n">
         <v>-0.02655579130137586</v>
       </c>
+      <c r="AF48" t="n">
+        <v>-77.05642641161144</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>976.7826022076754</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-99.83386001900689</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5533,6 +5971,15 @@
       <c r="AE49" t="n">
         <v>0.5325985516227361</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-98.7485108496905</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-99.48245003019512</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>115.1270022038928</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5636,6 +6083,15 @@
       <c r="AE50" t="n">
         <v>-0.232273422622421</v>
       </c>
+      <c r="AF50" t="n">
+        <v>108.6879355115607</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-97.74246383305298</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-87.71951321508119</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5739,6 +6195,15 @@
       <c r="AE51" t="n">
         <v>0.5006385740475241</v>
       </c>
+      <c r="AF51" t="n">
+        <v>-89.68783007308771</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-98.48553183557667</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>106.6984851760804</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5842,6 +6307,15 @@
       <c r="AE52" t="n">
         <v>-0.2556350032153149</v>
       </c>
+      <c r="AF52" t="n">
+        <v>120.8340481261957</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-98.15056522796255</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-93.23467165659713</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5945,6 +6419,15 @@
       <c r="AE53" t="n">
         <v>-0.2661297013640159</v>
       </c>
+      <c r="AF53" t="n">
+        <v>134.9605386338407</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-84.74171139642552</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-79.01968552778173</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6048,6 +6531,15 @@
       <c r="AE54" t="n">
         <v>-0.2118122794279719</v>
       </c>
+      <c r="AF54" t="n">
+        <v>-58.70672944439228</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>184.4435586026623</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-96.88896977663444</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6151,6 +6643,15 @@
       <c r="AE55" t="n">
         <v>-0.2550366013732636</v>
       </c>
+      <c r="AF55" t="n">
+        <v>118.6532862219648</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-89.37110834838032</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-90.20980715336971</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6254,6 +6755,15 @@
       <c r="AE56" t="n">
         <v>-0.2858419820899244</v>
       </c>
+      <c r="AF56" t="n">
+        <v>144.7105173445143</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-94.4455347510756</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-85.16600406189055</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6357,6 +6867,15 @@
       <c r="AE57" t="n">
         <v>-0.2714770250306172</v>
       </c>
+      <c r="AF57" t="n">
+        <v>137.6096873636569</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-81.33949750316145</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-81.12313073583502</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6460,6 +6979,15 @@
       <c r="AE58" t="n">
         <v>-0.2477995596991041</v>
       </c>
+      <c r="AF58" t="n">
+        <v>139.2740914737327</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-96.84613113112037</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-73.17401853294172</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6563,6 +7091,15 @@
       <c r="AE59" t="n">
         <v>-0.04217166051828877</v>
       </c>
+      <c r="AF59" t="n">
+        <v>-57.2937856451739</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>518.7630717215746</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-99.30770805716506</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6666,6 +7203,15 @@
       <c r="AE60" t="n">
         <v>-0.2082648887106665</v>
       </c>
+      <c r="AF60" t="n">
+        <v>252.7892376493313</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-82.34812235472661</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-61.68967397738193</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6769,6 +7315,15 @@
       <c r="AE61" t="n">
         <v>-0.2323772373292185</v>
       </c>
+      <c r="AF61" t="n">
+        <v>121.2286921395135</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>-97.07354958081726</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>-78.68554168550784</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6872,6 +7427,15 @@
       <c r="AE62" t="n">
         <v>-0.2583719576313009</v>
       </c>
+      <c r="AF62" t="n">
+        <v>124.1729009546384</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-91.59043472474471</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-87.22493185682066</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6975,6 +7539,15 @@
       <c r="AE63" t="n">
         <v>-0.233252344277982</v>
       </c>
+      <c r="AF63" t="n">
+        <v>152.5976686889699</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-92.79398134419819</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-61.00343296407409</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7077,6 +7650,15 @@
       </c>
       <c r="AE64" t="n">
         <v>0.6367898364858771</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-88.82385579304562</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-90.46783948243696</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>220.8345010100678</v>
       </c>
     </row>
   </sheetData>
